--- a/slate_6/rips_window_additive_0.5_6_5000_error8.xlsx
+++ b/slate_6/rips_window_additive_0.5_6_5000_error8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,24 +452,68 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0003678142585816655</v>
+        <v>0.01600115835765478</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0005215698916524031</v>
+        <v>0.01650836558393787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002852313349193014</v>
+        <v>0.0157197446338657</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.431512278455678e-06</v>
+        <v>0.003540570679363347</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00131195661360265</v>
+        <v>0.004468691493738327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001047460199665245</v>
+        <v>0.002119668113181576</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.0007886767629893649</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.11073322982741e-05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.003319211789152398</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.0005892303072452312</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.189395933217422e-05</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001576277173797907</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.0003259256486927466</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.738029334644431e-05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.000644000115928397</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.0122843278937477</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.009035207750730362</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01628065546006644</v>
       </c>
     </row>
   </sheetData>
